--- a/DOM_Banner/output/dept0713/Paul R Langlais_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Paul R Langlais_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona; Department of Pharmacology and Cancer Biology, Duke University, Durham, USA; Department of Pharmacology, University of Arizona, Tucson, USA; Division of Biology, Indian Institute of Science Education and Research, Tirupati, India; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, USA; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, USA; Department of Pharmacology, University of Arizona, Tucson, USA; Department of Pharmacology, University of Arizona, Tucson, USA; Cellular and Molecular Medicine, University of Arizona, Tucson, USA; Cellular and Molecular Medicine, University of Arizona, Tucson, USA; BIO5 Institute, University of Arizona, Tucson, USA; Department of Pharmacology, University of Arizona, Tucson, USA; Department of Pharmacology, University of Arizona, Tucson, USA; Department of Pharmacology, University of Arizona, Tucson, USA; Department of Physiology and Cell Biology, Ohio State University, Columbus, USA; Department of Biomedical Engineering, Ohio State University, Columbus, USA; Department of Internal Medicine, University of Arizona, Tucson, USA; Department of Pathology, University of Alabama at Birmingham, Birmingham, USA; Department of Pharmacology, University of Arizona, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221036237</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>βIV-spectrin as a stalk cell-intrinsic regulator of VEGF signaling</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-14</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Nature Communications</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41467-022-28933-1</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35288568</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41467-022-28933-1</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Pharmacology, University of Arizona, Tucson, AZ 85724.; Department of Pharmacology, University of Arizona, Tucson, AZ 85724.; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724.; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724.; Department of Pharmacology, University of Arizona, Tucson, AZ 85724.; Department of Pharmacology, University of Arizona, Tucson, AZ 85724.; Department of Pharmacology, University of Arizona, Tucson, AZ 85724.; Department of Pharmacology, University of Arizona, Tucson, AZ 85724.; Department of Microbiology, Immunology and Cancer Biology, University of Virginia, Charlottesville, VA 22908.; Department of Medicine, University of Arizona, Tucson, AZ 85724.; Department of Pathology, University of Alabama at Birmingham, 35294.; Department of Pharmacology, University of Arizona, Tucson, AZ 85724.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226323898</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Regulation of mitochondrial fission by GIPC-mediated Drp1 retrograde transport</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Molecular Biology of the Cell</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Society for Cell Biology</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1091/mbc.e21-06-0286</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34705526</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1091/mbc.e21-06-0286</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>The Catholic University of America; University of South Florida; Rutgers University; University of Arizona; University of South Florida; University of South Florida; University of South Florida; University of South Florida; University of Arizona; Rutgers University; Rutgers, the State University of New Jersey; University of South Florida; Catholic University of America</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293149823</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>A yeast-based system to study SARS-CoV-2 Mpro structure and to identify nirmatrelvir resistant mutations</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-08-26</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Research Square (Research Square)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Research Square (United States)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-1942964/v1</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36052369</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-1942964/v1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724, USA; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, Arizona, USA; Department of Pharmacology and Cancer Biology, Duke University, Durham, North Carolina, USA; Department of Pharmacology, University of Arizona, Tucson, Arizona, USA; Department of Pharmacology, University of Arizona, Tucson, Arizona, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Department of Pathology, University of Alabama at Birmingham, Birmingham, Alabama, USA; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286512158</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>EPDR1 is a noncanonical effector of insulin-mediated angiogenesis regulated by an endothelial-specific TGF-β receptor complex</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Biological Chemistry</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jbc.2022.102297</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35872017</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jbc.2022.102297</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Chemistry and Biochemistry, University of Arizona, 1306 East University Boulevard, Tucson, Arizona 85721, United States; Department of Chemistry and Biochemistry, University of Arizona, 1306 East University Boulevard, Tucson, Arizona 85721, United States; Department of Medicine, Division of Endocrinology, University of Arizona College of Medicine, Tucson, Arizona 85721, United States; Department of Medicine, Division of Endocrinology, University of Arizona College of Medicine, Tucson, Arizona 85721, United States; Department of Chemistry and Biochemistry, University of Arizona, 1306 East University Boulevard, Tucson, Arizona 85721, United States; Department of Chemistry and Biochemistry, University of Arizona, 1306 East University Boulevard, Tucson, Arizona 85721, United States</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220779205</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Direct Intracellular Delivery of Benzene Diazonium Ions As Observed by Increased Tyrosine Phosphorylation</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-03-18</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Biochemistry</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>American Chemical Society</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1021/acs.biochem.1c00820</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35302352</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1021/acs.biochem.1c00820</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Pharmacology, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, University of Arizona, Tucson, AZ 85721, USA; ; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, University of Arizona, Tucson, AZ 85721, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285733631</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Extracellular Alterations in pH and K+ Modify the Murine Brain Endothelial Cell Total and Phospho-Proteome</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-07-15</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Pharmaceutics</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/pharmaceutics14071469</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35890365</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/pharmaceutics14071469</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281786106</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Extracellular Alterations in Ph and K+ Modify the Murine Brain Endothelial Cell Total and Phospho-Proteome</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-06-06</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.20944/preprints202206.0063.v1</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.20944/preprints202206.0063.v1</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Division of Biology, Indian Institute of Science Education and Research, Tirupati 57507, India; Department of Pharmacology, University of Arizona, Tucson, AZ 8574, USA; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724, USA; Department of Pharmacology, University of Arizona, Tucson, AZ 8574, USA; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724, USA; Department of Pharmacology, University of Arizona, Tucson, AZ 8574, USA; Department of Medicine, University of Arizona, Tucson, AZ 8572, USA; Department of Pathology, University of Alabama at Birmingham, 3294, USA; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4205184871</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Identification of Mfn2-S249 as a Phosphoregulatory Switch of Mitochondrial Fusion Dynamics</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-01-12</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.01.11.475884</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.01.11.475884</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281290394</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Acetylation of Adenine Nucleotide Translocase, Fuel Selection, and Metabolic Flexibility in Human Skeletal Muscle</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-05-09</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283714303</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Correction to “Direct Intracellular Delivery of Benzene Diazonium Ions As Observed by Increased Tyrosine Phosphorylation”</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-06-30</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Biochemistry</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>American Chemical Society</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1021/acs.biochem.2c00316</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35772027</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1021/acs.biochem.2c00316</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t xml:space="preserve"> The Catholic University of America;;  University of South Florida;; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, NJ, 08854, United States;  University of Arizona;  University of South Florida;; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, FL, 3361, United States; Drug Discovery Department, Moffit Cancer Center, Tampa, FL 33612, United States;  University of South Florida;;  University of South Florida;;  University of Arizona; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, NJ, 08854, United States; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, NJ, 08854, United States;  University of South Florida;;  The Catholic University of America;</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4290988437</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>A yeast-based system to study SARS-CoV-2 M&lt;sup&gt;pro&lt;/sup&gt; structure and to identify nirmatrelvir resistant mutations</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-08-08</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.08.06.503039</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35982672</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.08.06.503039</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Medicine, Division of Endocrinology, University of Arizona College of Medicine, Tucson, AZ 85721, USA; Neuroscience Graduate Interdisciplinary Program, University of Arizona, Tucson, AZ 85721, USA; Neuroscience Graduate Interdisciplinary Program, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; James C. Wyant College of Optical Sciences, The University of Arizona, Tucson, AZ 85721, USA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294550774</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Targeting 5-HT2A receptors and Kv7 channels in PFC to attenuate chronic neuropathic pain in rats using a spared nerve injury model</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Neuroscience Letters</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.neulet.2022.136864</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36063980</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.neulet.2022.136864</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Paul R Langlais_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Paul R Langlais_2022.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1056,32 +1056,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sanjay Kumar, Aaron Ramonett, Tasmia Ahmed, Eun-A Kwak, Paola Cruz Flores, Hannah R. Ortiz, Paul Langlais, Karthikeyan Mythreye, Nam Y. Lee</t>
+          <t>Neusha Barakati, Rocio Zapata Bustos, Dawn K. Coletta, Paul Langlais, Lindsay N. Kohler, Moulun Luo, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Division of Biology, Indian Institute of Science Education and Research, Tirupati 57507, India; Department of Pharmacology, University of Arizona, Tucson, AZ 8574, USA; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724, USA; Department of Pharmacology, University of Arizona, Tucson, AZ 8574, USA; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724, USA; Department of Pharmacology, University of Arizona, Tucson, AZ 8574, USA; Department of Medicine, University of Arizona, Tucson, AZ 8572, USA; Department of Pathology, University of Alabama at Birmingham, 3294, USA; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724, USA</t>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4205184871</t>
+          <t>https://openalex.org/W4281290394</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Identification of Mfn2-S249 as a Phosphoregulatory Switch of Mitochondrial Fusion Dynamics</t>
+          <t>Acetylation of Adenine Nucleotide Translocase, Fuel Selection, and Metabolic Flexibility in Human Skeletal Muscle</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.01.11.475884</t>
+          <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.01.11.475884</t>
+          <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,32 +1143,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Neusha Barakati, Rocio Zapata Bustos, Dawn K. Coletta, Paul Langlais, Lindsay N. Kohler, Moulun Luo, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
+          <t>Jin Ou, Eric M. Lewandowski, Yanmei Hu, Austin A. Lipinski, Ryan T. Morgan, Lian Jacobs, Xiujun Zhang, Melissa J. Bikowitz, Paul Langlais, Haozhou Tan, Jun Wang, Yu. M. Chumakov, John S. Choy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona</t>
+          <t xml:space="preserve"> The Catholic University of America;;  University of South Florida;; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, NJ, 08854, United States;  University of Arizona;  University of South Florida;; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, FL, 3361, United States; Drug Discovery Department, Moffit Cancer Center, Tampa, FL 33612, United States;  University of South Florida;;  University of South Florida;;  University of Arizona; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, NJ, 08854, United States; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, NJ, 08854, United States;  University of South Florida;;  The Catholic University of America;</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4281290394</t>
+          <t>https://openalex.org/W4290988437</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Acetylation of Adenine Nucleotide Translocase, Fuel Selection, and Metabolic Flexibility in Human Skeletal Muscle</t>
+          <t>A yeast-based system to study SARS-CoV-2 M&lt;sup&gt;pro&lt;/sup&gt; structure and to identify nirmatrelvir resistant mutations</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-08-08</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.05.05.22274505</t>
+          <t>https://doi.org/10.1101/2022.08.06.503039</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35982672</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.05.05.22274505</t>
+          <t>https://doi.org/10.1101/2022.08.06.503039</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,47 +1230,47 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Natasha R Cornejo, Bismark Amofah, Austin A. Lipinski, Paul Langlais, Indraneel Ghosh, John C. Jewett</t>
+          <t>Velia S. Vizcarra, Kara R. Barber, Gabriela Franca-Solomon, Lisa Majuta, Angela Smith, Paul Langlais, Tally M. Largent‐Milnes, Todd W. Vanderah, Arthur C. Riegel</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; </t>
+          <t>Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Medicine, Division of Endocrinology, University of Arizona College of Medicine, Tucson, AZ 85721, USA; Neuroscience Graduate Interdisciplinary Program, University of Arizona, Tucson, AZ 85721, USA; Neuroscience Graduate Interdisciplinary Program, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; James C. Wyant College of Optical Sciences, The University of Arizona, Tucson, AZ 85721, USA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283714303</t>
+          <t>https://openalex.org/W4294550774</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Correction to “Direct Intracellular Delivery of Benzene Diazonium Ions As Observed by Increased Tyrosine Phosphorylation”</t>
+          <t>Targeting 5-HT2A receptors and Kv7 channels in PFC to attenuate chronic neuropathic pain in rats using a spared nerve injury model</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Biochemistry</t>
+          <t>Neuroscience Letters</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>American Chemical Society</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acs.biochem.2c00316</t>
+          <t>https://doi.org/10.1016/j.neulet.2022.136864</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35772027</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36063980</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acs.biochem.2c00316</t>
+          <t>https://doi.org/10.1016/j.neulet.2022.136864</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,27 +1317,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jin Ou, Eric M. Lewandowski, Yanmei Hu, Austin A. Lipinski, Ryan T. Morgan, Lian Jacobs, Xiujun Zhang, Melissa J. Bikowitz, Paul Langlais, Haozhou Tan, Jun Wang, Yu. M. Chumakov, John S. Choy</t>
+          <t>Sanjay Kumar, Aaron Ramonett, Tasmia Ahmed, Eun-A Kwak, Paola Cruz Flores, Hannah R. Ortiz, Paul Langlais, Karthikeyan Mythreye, Nam Y. Lee</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Catholic University of America;;  University of South Florida;; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, NJ, 08854, United States;  University of Arizona;  University of South Florida;; Department of Molecular Medicine, Morsani College of Medicine, University of South Florida, Tampa, FL, 3361, United States; Drug Discovery Department, Moffit Cancer Center, Tampa, FL 33612, United States;  University of South Florida;;  University of South Florida;;  University of Arizona; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, NJ, 08854, United States; Department of Medicinal Chemistry, Ernest Mario School of Pharmacy, Rutgers, the State University of New Jersey, Piscataway, NJ, 08854, United States;  University of South Florida;;  The Catholic University of America;</t>
+          <t>Division of Biology, Indian Institute of Science Education and Research, Tirupati 57507, India; Department of Pharmacology, University of Arizona, Tucson, AZ 8574, USA; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724, USA; Department of Pharmacology, University of Arizona, Tucson, AZ 8574, USA; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724, USA; Department of Pharmacology, University of Arizona, Tucson, AZ 8574, USA; Department of Medicine, University of Arizona, Tucson, AZ 8572, USA; Department of Pathology, University of Alabama at Birmingham, 3294, USA; Department of Chemistry &amp; Biochemistry, University of Arizona, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4290988437</t>
+          <t>https://openalex.org/W4205184871</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A yeast-based system to study SARS-CoV-2 M&lt;sup&gt;pro&lt;/sup&gt; structure and to identify nirmatrelvir resistant mutations</t>
+          <t>Identification of Mfn2-S249 as a Phosphoregulatory Switch of Mitochondrial Fusion Dynamics</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2022-08-08</t>
+          <t>2022-01-12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.08.06.503039</t>
+          <t>https://doi.org/10.1101/2022.01.11.475884</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/35982672</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.08.06.503039</t>
+          <t>https://doi.org/10.1101/2022.01.11.475884</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,47 +1404,47 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Velia S. Vizcarra, Kara R. Barber, Gabriela Franca-Solomon, Lisa Majuta, Angela Smith, Paul Langlais, Tally M. Largent‐Milnes, Todd W. Vanderah, Arthur C. Riegel</t>
+          <t>Natasha R Cornejo, Bismark Amofah, Austin A. Lipinski, Paul Langlais, Indraneel Ghosh, John C. Jewett</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; Department of Medicine, Division of Endocrinology, University of Arizona College of Medicine, Tucson, AZ 85721, USA; Neuroscience Graduate Interdisciplinary Program, University of Arizona, Tucson, AZ 85721, USA; Neuroscience Graduate Interdisciplinary Program, University of Arizona, Tucson, AZ 85721, USA; Department of Pharmacology, College of Medicine, University of Arizona, Tucson, AZ 85721, USA; James C. Wyant College of Optical Sciences, The University of Arizona, Tucson, AZ 85721, USA</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4294550774</t>
+          <t>https://openalex.org/W4283714303</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Targeting 5-HT2A receptors and Kv7 channels in PFC to attenuate chronic neuropathic pain in rats using a spared nerve injury model</t>
+          <t>Correction to “Direct Intracellular Delivery of Benzene Diazonium Ions As Observed by Increased Tyrosine Phosphorylation”</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Neuroscience Letters</t>
+          <t>Biochemistry</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>American Chemical Society</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.neulet.2022.136864</t>
+          <t>https://doi.org/10.1021/acs.biochem.2c00316</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36063980</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35772027</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.neulet.2022.136864</t>
+          <t>https://doi.org/10.1021/acs.biochem.2c00316</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
